--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1291963.523890588</v>
+        <v>1288207.1341808</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5915902.834835912</v>
+        <v>5915902.834835916</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3965492.587439198</v>
+        <v>3965492.587439199</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.9851551450804</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C11" t="n">
-        <v>420.7096284534326</v>
+        <v>420.7096284534329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>416.3855777583097</v>
       </c>
       <c r="F11" t="n">
-        <v>30.8144089825223</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723393</v>
+        <v>37.65622473168304</v>
       </c>
       <c r="H11" t="n">
-        <v>253.9729163065503</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515041</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>391.1518428283648</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8490128968189</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C13" t="n">
-        <v>157.784674766629</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1677932355142</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E13" t="n">
-        <v>155.0090040767918</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F13" t="n">
-        <v>161.888563862883</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.9692003794992</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.41291406313636</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.9308534758295</v>
+        <v>23.20281202710088</v>
       </c>
       <c r="T13" t="n">
-        <v>226.7733322206491</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U13" t="n">
-        <v>262.5513459967661</v>
+        <v>262.5513459967664</v>
       </c>
       <c r="V13" t="n">
-        <v>169.8000425443213</v>
+        <v>271.0345334132958</v>
       </c>
       <c r="W13" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849433</v>
+        <v>229.8864174849436</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.9851551450804</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>420.7096284534326</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>382.4562447723395</v>
       </c>
       <c r="H14" t="n">
-        <v>55.53854575875594</v>
+        <v>253.9729163065506</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.01028645237292</v>
       </c>
       <c r="T14" t="n">
-        <v>196.6021193806006</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>243.4285649287231</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>174.9674362778828</v>
       </c>
       <c r="W14" t="n">
-        <v>387.7554804080987</v>
+        <v>387.7554804080989</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515041</v>
+        <v>401.8996191515043</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.8490128968189</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C16" t="n">
-        <v>36.4386884248559</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D16" t="n">
-        <v>151.1677932355142</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E16" t="n">
-        <v>155.0090040767918</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F16" t="n">
-        <v>161.888563862883</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486284</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.9692003794992</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>226.7733322206491</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U16" t="n">
-        <v>262.5513459967661</v>
+        <v>173.2785082241201</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132958</v>
       </c>
       <c r="W16" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X16" t="n">
-        <v>229.8864174849433</v>
+        <v>229.8864174849436</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.9851551450804</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C17" t="n">
-        <v>420.7096284534326</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>382.4562447723393</v>
+        <v>316.1272920183916</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>243.4285649287231</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>345.9393609305337</v>
       </c>
       <c r="W17" t="n">
-        <v>284.7873252890728</v>
+        <v>387.7554804080989</v>
       </c>
       <c r="X17" t="n">
-        <v>401.8996191515041</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.1518428283648</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.8490128968189</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C19" t="n">
-        <v>157.784674766629</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1677932355142</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E19" t="n">
-        <v>155.0090040767918</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F19" t="n">
-        <v>161.888563862883</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486284</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>28.6963626068532</v>
       </c>
       <c r="T19" t="n">
-        <v>105.4273458788763</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U19" t="n">
-        <v>262.5513459967661</v>
+        <v>262.5513459967664</v>
       </c>
       <c r="V19" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132958</v>
       </c>
       <c r="W19" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849433</v>
+        <v>229.8864174849436</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450804</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>420.7096284534329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>416.3855777583097</v>
       </c>
       <c r="F20" t="n">
-        <v>410.537335659906</v>
+        <v>53.87557339810776</v>
       </c>
       <c r="G20" t="n">
-        <v>289.6603824468401</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>243.4285649287231</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>345.9393609305337</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080987</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>401.8996191515041</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.1518428283648</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D22" t="n">
-        <v>67.14252663872435</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E22" t="n">
-        <v>155.0090040767918</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F22" t="n">
-        <v>161.888563862883</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486284</v>
+        <v>10.68272623646755</v>
       </c>
       <c r="H22" t="n">
-        <v>117.9692003794989</v>
+        <v>117.9692003794992</v>
       </c>
       <c r="I22" t="n">
-        <v>49.41291406313611</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9308534758295</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T22" t="n">
-        <v>226.7733322206491</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U22" t="n">
-        <v>262.5513459967661</v>
+        <v>262.5513459967664</v>
       </c>
       <c r="V22" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132958</v>
       </c>
       <c r="W22" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X22" t="n">
-        <v>229.8864174849433</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.9851551450804</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C23" t="n">
-        <v>420.7096284534326</v>
+        <v>420.7096284534329</v>
       </c>
       <c r="D23" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E23" t="n">
-        <v>416.3855777583095</v>
+        <v>416.3855777583097</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.5373356599063</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723393</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065504</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>27.01028645237292</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>61.70061919146388</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305334</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>204.6218999371062</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>401.8996191515043</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.8490128968189</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C25" t="n">
-        <v>157.784674766629</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D25" t="n">
-        <v>151.1677932355142</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E25" t="n">
-        <v>155.0090040767918</v>
+        <v>155.009004076792</v>
       </c>
       <c r="F25" t="n">
-        <v>161.888563862883</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486284</v>
+        <v>150.0423489486287</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9692003794989</v>
+        <v>117.9692003794992</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313612</v>
+        <v>49.41291406313636</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9308534758292</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7733322206492</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U25" t="n">
-        <v>262.5513459967661</v>
+        <v>262.5513459967657</v>
       </c>
       <c r="V25" t="n">
-        <v>271.0345334132955</v>
+        <v>271.0345334132958</v>
       </c>
       <c r="W25" t="n">
-        <v>256.2547207345931</v>
+        <v>256.2547207345933</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849433</v>
+        <v>229.8864174849436</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0940543440545</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>34.38989718640683</v>
       </c>
       <c r="G26" t="n">
-        <v>349.0949631042827</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>142.9822731108076</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>4.374759059013509</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>34.1010892031539</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108076</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.26230475649646</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>358.1643802972935</v>
       </c>
     </row>
     <row r="33">
@@ -3243,7 +3243,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3274,13 +3274,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>109.5540470185009</v>
+        <v>190.630622085399</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>49.34995949258575</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.34897497107005</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>372.7020457012027</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>70.92986263248825</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,7 +3678,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>111.4016648880122</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3723,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>200.1028142583222</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>324.1392096094912</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>131.5559914119818</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3951,13 +3951,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>103.1810575034251</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>119.8461174193189</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>214.2309914784211</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>384.5662989209578</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>7.722803593219133</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1146.149176311424</v>
+        <v>1353.520388201225</v>
       </c>
       <c r="C11" t="n">
-        <v>721.1899556513911</v>
+        <v>928.5611675411917</v>
       </c>
       <c r="D11" t="n">
-        <v>721.1899556513911</v>
+        <v>505.8346348721797</v>
       </c>
       <c r="E11" t="n">
-        <v>721.1899556513911</v>
+        <v>85.24314218701841</v>
       </c>
       <c r="F11" t="n">
-        <v>690.0642900124797</v>
+        <v>85.24314218701841</v>
       </c>
       <c r="G11" t="n">
-        <v>303.7448508485006</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895473</v>
@@ -5041,22 +5041,22 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5071,22 +5071,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="X11" t="n">
-        <v>1954.368366183591</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="Y11" t="n">
-        <v>1559.265494639788</v>
+        <v>1766.636706529589</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5162,10 +5162,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.3783050255386</v>
+        <v>684.9273460151883</v>
       </c>
       <c r="C13" t="n">
-        <v>519.9998456653072</v>
+        <v>525.5488866549567</v>
       </c>
       <c r="D13" t="n">
-        <v>367.3051050233738</v>
+        <v>372.854146013023</v>
       </c>
       <c r="E13" t="n">
-        <v>210.7303534306548</v>
+        <v>216.2793944203038</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>216.2793944203038</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>216.2793944203038</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>97.11858595616317</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895473</v>
@@ -5202,22 +5202,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909401</v>
       </c>
       <c r="L13" t="n">
-        <v>756.0122647025502</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M13" t="n">
-        <v>1340.193340120865</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N13" t="n">
-        <v>1467.692251924754</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2229.084291108515</v>
+        <v>2336.890393581978</v>
       </c>
       <c r="T13" t="n">
-        <v>2000.020319168465</v>
+        <v>2107.826421641928</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.816939373752</v>
+        <v>1842.623041847215</v>
       </c>
       <c r="V13" t="n">
-        <v>1563.301744884538</v>
+        <v>1568.850785874189</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.458592627373</v>
+        <v>1310.007633617024</v>
       </c>
       <c r="X13" t="n">
-        <v>1072.25009011733</v>
+        <v>1077.79913110698</v>
       </c>
       <c r="Y13" t="n">
-        <v>858.0136715879819</v>
+        <v>863.5627125776318</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>950.99184604846</v>
+        <v>1112.790822681492</v>
       </c>
       <c r="C14" t="n">
-        <v>526.032625388427</v>
+        <v>1112.790822681492</v>
       </c>
       <c r="D14" t="n">
-        <v>103.3060927194153</v>
+        <v>690.0642900124801</v>
       </c>
       <c r="E14" t="n">
-        <v>103.3060927194153</v>
+        <v>690.0642900124801</v>
       </c>
       <c r="F14" t="n">
-        <v>103.3060927194153</v>
+        <v>690.0642900124801</v>
       </c>
       <c r="G14" t="n">
-        <v>103.3060927194153</v>
+        <v>303.7448508485008</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
         <v>1463.013992431967</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T14" t="n">
-        <v>2161.739578073393</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="U14" t="n">
-        <v>2161.739578073393</v>
+        <v>2087.157020497134</v>
       </c>
       <c r="V14" t="n">
-        <v>2161.739578073393</v>
+        <v>1910.422236378061</v>
       </c>
       <c r="W14" t="n">
-        <v>1770.06737564097</v>
+        <v>1518.750033945638</v>
       </c>
       <c r="X14" t="n">
-        <v>1364.108164376824</v>
+        <v>1112.790822681492</v>
       </c>
       <c r="Y14" t="n">
-        <v>1364.108164376824</v>
+        <v>1112.790822681492</v>
       </c>
     </row>
     <row r="15">
@@ -5348,13 +5348,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>708.3645298809481</v>
+        <v>798.5391134896802</v>
       </c>
       <c r="C16" t="n">
-        <v>671.5577738962452</v>
+        <v>639.1606541294486</v>
       </c>
       <c r="D16" t="n">
-        <v>518.8630332543116</v>
+        <v>486.4659134875148</v>
       </c>
       <c r="E16" t="n">
-        <v>362.2882816615926</v>
+        <v>329.8911618947956</v>
       </c>
       <c r="F16" t="n">
-        <v>198.7644797798926</v>
+        <v>166.3673600130953</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>166.3673600130953</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
@@ -5442,19 +5442,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M16" t="n">
-        <v>992.6864461505238</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5469,19 +5469,19 @@
         <v>2131.263605507687</v>
       </c>
       <c r="U16" t="n">
-        <v>1866.060225712974</v>
+        <v>1956.234809321707</v>
       </c>
       <c r="V16" t="n">
-        <v>1592.287969739948</v>
+        <v>1682.462553348681</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.444817482783</v>
+        <v>1423.619401091516</v>
       </c>
       <c r="X16" t="n">
-        <v>1101.236314972739</v>
+        <v>1191.410898581472</v>
       </c>
       <c r="Y16" t="n">
-        <v>886.9998964433914</v>
+        <v>977.1744800521237</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>858.4852113729669</v>
+        <v>366.5270485372291</v>
       </c>
       <c r="C17" t="n">
-        <v>433.5259907129338</v>
+        <v>366.5270485372291</v>
       </c>
       <c r="D17" t="n">
-        <v>433.5259907129338</v>
+        <v>366.5270485372291</v>
       </c>
       <c r="E17" t="n">
-        <v>433.5259907129338</v>
+        <v>366.5270485372291</v>
       </c>
       <c r="F17" t="n">
-        <v>433.5259907129338</v>
+        <v>366.5270485372291</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1915.85213875145</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1566.41844084182</v>
       </c>
       <c r="W17" t="n">
-        <v>2072.66361250928</v>
+        <v>1174.746238409396</v>
       </c>
       <c r="X17" t="n">
-        <v>1666.704401245134</v>
+        <v>1174.746238409396</v>
       </c>
       <c r="Y17" t="n">
-        <v>1271.601529701331</v>
+        <v>779.6433668655934</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>830.9362332564765</v>
+        <v>679.3783050255395</v>
       </c>
       <c r="C19" t="n">
-        <v>671.5577738962452</v>
+        <v>519.9998456653079</v>
       </c>
       <c r="D19" t="n">
-        <v>518.8630332543116</v>
+        <v>367.3051050233742</v>
       </c>
       <c r="E19" t="n">
-        <v>362.2882816615926</v>
+        <v>210.730353430655</v>
       </c>
       <c r="F19" t="n">
-        <v>198.7644797798926</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>828.1746199579906</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.341352592329</v>
       </c>
       <c r="T19" t="n">
-        <v>2253.835308883215</v>
+        <v>2102.27738065228</v>
       </c>
       <c r="U19" t="n">
-        <v>1988.631929088502</v>
+        <v>1837.074000857566</v>
       </c>
       <c r="V19" t="n">
-        <v>1714.859673115476</v>
+        <v>1563.30174488454</v>
       </c>
       <c r="W19" t="n">
-        <v>1456.016520858312</v>
+        <v>1304.458592627375</v>
       </c>
       <c r="X19" t="n">
-        <v>1223.808018348268</v>
+        <v>1072.250090117331</v>
       </c>
       <c r="Y19" t="n">
-        <v>1009.57159981892</v>
+        <v>858.013671587983</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>754.4769738790014</v>
+        <v>1369.903568672361</v>
       </c>
       <c r="C20" t="n">
-        <v>754.4769738790014</v>
+        <v>944.9443480123277</v>
       </c>
       <c r="D20" t="n">
-        <v>754.4769738790014</v>
+        <v>522.2178153433158</v>
       </c>
       <c r="E20" t="n">
-        <v>754.4769738790014</v>
+        <v>101.6263226581545</v>
       </c>
       <c r="F20" t="n">
-        <v>339.7927964447529</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5785,19 +5785,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2114.440138125794</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1765.006440216164</v>
       </c>
       <c r="W20" t="n">
-        <v>1968.655375015314</v>
+        <v>1765.006440216164</v>
       </c>
       <c r="X20" t="n">
-        <v>1562.696163751168</v>
+        <v>1765.006440216164</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.593292207365</v>
+        <v>1369.903568672361</v>
       </c>
     </row>
     <row r="21">
@@ -5813,40 +5813,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>755.7566101041696</v>
+        <v>809.3297460517686</v>
       </c>
       <c r="C22" t="n">
-        <v>755.7566101041696</v>
+        <v>649.951286691537</v>
       </c>
       <c r="D22" t="n">
-        <v>687.9358761256601</v>
+        <v>497.2565460496032</v>
       </c>
       <c r="E22" t="n">
-        <v>531.3611245329412</v>
+        <v>340.681794456884</v>
       </c>
       <c r="F22" t="n">
-        <v>367.8373226512411</v>
+        <v>177.1579925751838</v>
       </c>
       <c r="G22" t="n">
-        <v>216.2793944203033</v>
+        <v>166.3673600130953</v>
       </c>
       <c r="H22" t="n">
-        <v>97.11858595616295</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>688.1212571728194</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N22" t="n">
-        <v>1399.801244395024</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5943,19 +5943,19 @@
         <v>2000.020319168465</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.816939373752</v>
+        <v>1734.816939373751</v>
       </c>
       <c r="V22" t="n">
-        <v>1461.044683400726</v>
+        <v>1461.044683400725</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.201531143561</v>
+        <v>1202.20153114356</v>
       </c>
       <c r="X22" t="n">
-        <v>969.9930286335176</v>
+        <v>1202.20153114356</v>
       </c>
       <c r="Y22" t="n">
-        <v>755.7566101041696</v>
+        <v>987.9651126142121</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1966.971899957014</v>
+        <v>1738.798338927739</v>
       </c>
       <c r="C23" t="n">
-        <v>1542.012679296981</v>
+        <v>1313.839118267705</v>
       </c>
       <c r="D23" t="n">
-        <v>1119.286146627969</v>
+        <v>891.1125855986934</v>
       </c>
       <c r="E23" t="n">
-        <v>698.6946539428083</v>
+        <v>470.5210929135321</v>
       </c>
       <c r="F23" t="n">
-        <v>698.6946539428083</v>
+        <v>55.83691547928334</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3752147788292</v>
+        <v>55.83691547928334</v>
       </c>
       <c r="H23" t="n">
-        <v>55.83691547928327</v>
+        <v>55.83691547928334</v>
       </c>
       <c r="I23" t="n">
         <v>127.0368657304639</v>
       </c>
       <c r="J23" t="n">
-        <v>538.417408806951</v>
+        <v>284.6836409739092</v>
       </c>
       <c r="K23" t="n">
-        <v>774.6890591861718</v>
+        <v>520.95529135313</v>
       </c>
       <c r="L23" t="n">
-        <v>1067.804934050072</v>
+        <v>814.0711662170306</v>
       </c>
       <c r="M23" t="n">
-        <v>1393.95282221886</v>
+        <v>1140.219054385818</v>
       </c>
       <c r="N23" t="n">
-        <v>1725.378124195337</v>
+        <v>1471.644356362295</v>
       </c>
       <c r="O23" t="n">
-        <v>2038.33363873663</v>
+        <v>1784.599870903588</v>
       </c>
       <c r="P23" t="n">
-        <v>2305.433929915899</v>
+        <v>2051.700162082857</v>
       </c>
       <c r="Q23" t="n">
-        <v>2506.015124926966</v>
+        <v>2506.01512492697</v>
       </c>
       <c r="R23" t="n">
-        <v>2791.845773964164</v>
+        <v>2791.845773964167</v>
       </c>
       <c r="S23" t="n">
-        <v>2791.845773964164</v>
+        <v>2764.562656335508</v>
       </c>
       <c r="T23" t="n">
-        <v>2791.845773964164</v>
+        <v>2764.562656335508</v>
       </c>
       <c r="U23" t="n">
-        <v>2729.521916195008</v>
+        <v>2764.562656335508</v>
       </c>
       <c r="V23" t="n">
-        <v>2380.088218285378</v>
+        <v>2764.562656335508</v>
       </c>
       <c r="W23" t="n">
-        <v>2380.088218285378</v>
+        <v>2557.873868520249</v>
       </c>
       <c r="X23" t="n">
-        <v>2380.088218285378</v>
+        <v>2151.914657256103</v>
       </c>
       <c r="Y23" t="n">
-        <v>2380.088218285378</v>
+        <v>2151.914657256103</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>551.2016689967193</v>
+        <v>551.2016689967194</v>
       </c>
       <c r="C24" t="n">
-        <v>444.7452078333616</v>
+        <v>444.7452078333617</v>
       </c>
       <c r="D24" t="n">
-        <v>349.6549189799148</v>
+        <v>349.654918979915</v>
       </c>
       <c r="E24" t="n">
-        <v>255.5345043068685</v>
+        <v>255.5345043068687</v>
       </c>
       <c r="F24" t="n">
-        <v>172.1506659230301</v>
+        <v>172.1506659230303</v>
       </c>
       <c r="G24" t="n">
-        <v>87.77956551268701</v>
+        <v>87.7795655126871</v>
       </c>
       <c r="H24" t="n">
-        <v>55.83691547928327</v>
+        <v>55.83691547928334</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075938</v>
+        <v>90.05365165075969</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9469909972265</v>
+        <v>183.9469909972268</v>
       </c>
       <c r="K24" t="n">
-        <v>344.4256630513967</v>
+        <v>344.425663051397</v>
       </c>
       <c r="L24" t="n">
-        <v>560.209041926419</v>
+        <v>560.2090419264192</v>
       </c>
       <c r="M24" t="n">
-        <v>812.0180672291165</v>
+        <v>812.0180672291167</v>
       </c>
       <c r="N24" t="n">
         <v>1070.491728150437</v>
@@ -6110,10 +6110,10 @@
         <v>953.8587850583817</v>
       </c>
       <c r="X24" t="n">
-        <v>798.9913492972616</v>
+        <v>798.9913492972618</v>
       </c>
       <c r="Y24" t="n">
-        <v>672.5055700764824</v>
+        <v>672.5055700764825</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.639440058153</v>
+        <v>1008.639440058155</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979222</v>
+        <v>849.2609806979239</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5662400559886</v>
+        <v>696.56624005599</v>
       </c>
       <c r="E25" t="n">
-        <v>539.9914884632697</v>
+        <v>539.9914884632708</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4676865815696</v>
+        <v>376.4676865815705</v>
       </c>
       <c r="G25" t="n">
-        <v>224.9097583506318</v>
+        <v>224.9097583506324</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7489498864915</v>
+        <v>105.7489498864918</v>
       </c>
       <c r="I25" t="n">
-        <v>55.83691547928327</v>
+        <v>55.83691547928334</v>
       </c>
       <c r="J25" t="n">
-        <v>201.3222643461562</v>
+        <v>201.3222643461563</v>
       </c>
       <c r="K25" t="n">
         <v>572.88081948485</v>
       </c>
       <c r="L25" t="n">
-        <v>739.3644739602048</v>
+        <v>1114.961502871109</v>
       </c>
       <c r="M25" t="n">
-        <v>1329.452733479647</v>
+        <v>1245.565895209638</v>
       </c>
       <c r="N25" t="n">
-        <v>1899.210448441181</v>
+        <v>1551.703554470843</v>
       </c>
       <c r="O25" t="n">
-        <v>2436.645579014724</v>
+        <v>2089.138685044386</v>
       </c>
       <c r="P25" t="n">
-        <v>2537.414635192408</v>
+        <v>2537.414635192412</v>
       </c>
       <c r="Q25" t="n">
-        <v>2775.374681287396</v>
+        <v>2775.3746812874</v>
       </c>
       <c r="R25" t="n">
-        <v>2791.845773964164</v>
+        <v>2791.845773964167</v>
       </c>
       <c r="S25" t="n">
-        <v>2660.602487624942</v>
+        <v>2660.602487624945</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684892</v>
+        <v>2431.538515684895</v>
       </c>
       <c r="U25" t="n">
-        <v>2166.335135890179</v>
+        <v>2166.335135890182</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917153</v>
+        <v>1892.562879917156</v>
       </c>
       <c r="W25" t="n">
-        <v>1633.719727659989</v>
+        <v>1633.719727659991</v>
       </c>
       <c r="X25" t="n">
-        <v>1401.511225149945</v>
+        <v>1401.511225149947</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.274806620597</v>
+        <v>1187.274806620599</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2148.1882118424</v>
+        <v>927.887310962447</v>
       </c>
       <c r="C26" t="n">
-        <v>1710.045739025823</v>
+        <v>927.887310962447</v>
       </c>
       <c r="D26" t="n">
-        <v>1274.135954200268</v>
+        <v>927.887310962447</v>
       </c>
       <c r="E26" t="n">
-        <v>840.361209358563</v>
+        <v>494.1125661207422</v>
       </c>
       <c r="F26" t="n">
-        <v>412.4937797677707</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G26" t="n">
         <v>59.87260491495994</v>
@@ -6226,10 +6226,10 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>723.9740178625035</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>960.2456682417244</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L26" t="n">
         <v>1253.361543105625</v>
@@ -6247,7 +6247,7 @@
         <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
@@ -6256,22 +6256,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2993.630245747997</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="V26" t="n">
-        <v>2993.630245747997</v>
+        <v>2160.17135267245</v>
       </c>
       <c r="W26" t="n">
-        <v>2993.630245747997</v>
+        <v>1755.315898083483</v>
       </c>
       <c r="X26" t="n">
-        <v>2574.487782327308</v>
+        <v>1336.173434662794</v>
       </c>
       <c r="Y26" t="n">
-        <v>2574.487782327308</v>
+        <v>927.887310962447</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643631</v>
       </c>
       <c r="J27" t="n">
         <v>187.9826804329034</v>
@@ -6363,16 +6363,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6393,13 +6393,13 @@
         <v>1118.997192306786</v>
       </c>
       <c r="M28" t="n">
-        <v>1709.085451826228</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N28" t="n">
-        <v>2278.843166787762</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O28" t="n">
-        <v>2638.430050798558</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P28" t="n">
         <v>2739.199106976242</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>897.5177690520595</v>
+        <v>1756.927255493536</v>
       </c>
       <c r="C29" t="n">
-        <v>459.3752962354828</v>
+        <v>1756.927255493536</v>
       </c>
       <c r="D29" t="n">
-        <v>459.3752962354828</v>
+        <v>1321.01747066798</v>
       </c>
       <c r="E29" t="n">
-        <v>459.3752962354828</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F29" t="n">
         <v>459.3752962354828</v>
       </c>
       <c r="G29" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="H29" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I29" t="n">
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K29" t="n">
-        <v>960.2456682417247</v>
+        <v>1029.642816232215</v>
       </c>
       <c r="L29" t="n">
-        <v>1253.361543105625</v>
+        <v>1322.758691096115</v>
       </c>
       <c r="M29" t="n">
-        <v>1579.509431274412</v>
+        <v>1648.906579264903</v>
       </c>
       <c r="N29" t="n">
-        <v>1910.93473325089</v>
+        <v>1980.33188124138</v>
       </c>
       <c r="O29" t="n">
-        <v>2223.890247792182</v>
+        <v>2293.287395782673</v>
       </c>
       <c r="P29" t="n">
-        <v>2490.990538971451</v>
+        <v>2560.387686961942</v>
       </c>
       <c r="Q29" t="n">
-        <v>2707.7995967108</v>
+        <v>2760.968881973009</v>
       </c>
       <c r="R29" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S29" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="T29" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="U29" t="n">
-        <v>2918.718331313144</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="V29" t="n">
-        <v>2556.10138124697</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="W29" t="n">
-        <v>2151.245926658003</v>
+        <v>2588.77479115903</v>
       </c>
       <c r="X29" t="n">
-        <v>1732.103463237314</v>
+        <v>2169.63232773834</v>
       </c>
       <c r="Y29" t="n">
-        <v>1323.817339536967</v>
+        <v>1761.346204037994</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>555.2373584323961</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C30" t="n">
-        <v>448.7808972690385</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D30" t="n">
-        <v>353.6906084155917</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E30" t="n">
-        <v>259.5701937425454</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F30" t="n">
-        <v>176.186355358707</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G30" t="n">
-        <v>91.81525494836387</v>
+        <v>91.81525494836367</v>
       </c>
       <c r="H30" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I30" t="n">
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329033</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870735</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6578,16 +6578,16 @@
         <v>1342.334746698865</v>
       </c>
       <c r="V30" t="n">
-        <v>1143.217228760865</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W30" t="n">
-        <v>957.8944744940586</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X30" t="n">
-        <v>803.0270387329385</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y30" t="n">
-        <v>676.5412595121593</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="31">
@@ -6600,16 +6600,16 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728614</v>
+        <v>932.396183072861</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G31" t="n">
         <v>255.311952099396</v>
@@ -6618,25 +6618,25 @@
         <v>122.9678914787119</v>
       </c>
       <c r="I31" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="J31" t="n">
         <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>576.9165089205267</v>
+        <v>469.7712501553982</v>
       </c>
       <c r="L31" t="n">
-        <v>1118.997192306786</v>
+        <v>593.6420517736962</v>
       </c>
       <c r="M31" t="n">
-        <v>1709.085451826228</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N31" t="n">
-        <v>2278.843166787762</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O31" t="n">
-        <v>2638.430050798558</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P31" t="n">
         <v>2739.199106976241</v>
@@ -6645,28 +6645,28 @@
         <v>2977.159153071229</v>
       </c>
       <c r="R31" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S31" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T31" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U31" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V31" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W31" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X31" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y31" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2107.721842057197</v>
+        <v>933.9248625570922</v>
       </c>
       <c r="C32" t="n">
-        <v>2026.648806949625</v>
+        <v>495.7823897405154</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.739022124069</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.964277282364</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="F32" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6700,19 +6700,19 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K32" t="n">
-        <v>976.4735309700052</v>
+        <v>524.9909807888066</v>
       </c>
       <c r="L32" t="n">
-        <v>1269.589405833906</v>
+        <v>818.1068556527073</v>
       </c>
       <c r="M32" t="n">
-        <v>1595.737294002693</v>
+        <v>1144.254743821494</v>
       </c>
       <c r="N32" t="n">
-        <v>1927.16259597917</v>
+        <v>1499.194624697834</v>
       </c>
       <c r="O32" t="n">
         <v>2240.118110520463</v>
@@ -6730,22 +6730,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2953.163875962794</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2953.163875962794</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V32" t="n">
-        <v>2953.163875962794</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W32" t="n">
-        <v>2953.163875962794</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="X32" t="n">
-        <v>2534.021412542105</v>
+        <v>1295.707064877591</v>
       </c>
       <c r="Y32" t="n">
-        <v>2534.021412542105</v>
+        <v>933.9248625570922</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M33" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1104.957894589637</v>
+        <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
@@ -6858,25 +6858,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.778268617143</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>219.75414325177</v>
+        <v>302.1580543493911</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8348266380289</v>
+        <v>844.2387377356501</v>
       </c>
       <c r="M34" t="n">
-        <v>1351.923086157471</v>
+        <v>1434.326997255093</v>
       </c>
       <c r="N34" t="n">
-        <v>1921.680801119006</v>
+        <v>2004.084712216627</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.115931692549</v>
+        <v>2541.51984279017</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.391881840574</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6894,13 +6894,13 @@
         <v>2328.569851204381</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.614343074812</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W34" t="n">
         <v>1769.587938661103</v>
       </c>
       <c r="X34" t="n">
-        <v>1524.196183994516</v>
+        <v>1524.196183994515</v>
       </c>
       <c r="Y34" t="n">
         <v>1296.776513308624</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X35" t="n">
-        <v>2319.861207662533</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.200554108492</v>
+        <v>1748.628930102402</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.947661807679</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851411</v>
+        <v>749.9721259575934</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268366</v>
+        <v>749.9721259575934</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364612</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895472</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>116.6355901513737</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>488.1941452900674</v>
       </c>
       <c r="L37" t="n">
-        <v>744.9929992049549</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827552</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789086</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.320157362629</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447736</v>
+        <v>2302.399319901201</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>2060.152095804608</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1781.765463853351</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1494.809955723781</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1222.783551310073</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.32005419002</v>
+        <v>977.3917966434851</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041283</v>
+        <v>749.9721259575934</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>861.8157371950291</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="C38" t="n">
-        <v>423.6732643784524</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D38" t="n">
-        <v>423.6732643784524</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E38" t="n">
-        <v>423.6732643784524</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F38" t="n">
-        <v>423.6732643784524</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
         <v>512.3249274228015</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447736</v>
+        <v>2288.681251556334</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.25688596925</v>
+        <v>2029.610560077848</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.25688596925</v>
+        <v>2029.610560077848</v>
       </c>
       <c r="W38" t="n">
-        <v>1696.401431380283</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="X38" t="n">
-        <v>1696.401431380283</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="Y38" t="n">
-        <v>1288.115307679937</v>
+        <v>1624.755105488881</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>843.5014354710333</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>670.9397239542583</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>670.9397239542583</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>501.1817202049955</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>324.4746661667517</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>159.7334857792701</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>767.3301446246909</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M40" t="n">
-        <v>897.9345369632202</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N40" t="n">
-        <v>1467.692251924754</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O40" t="n">
-        <v>2005.127382498297</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1448.434844064758</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.434844064758</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>1221.015173378866</v>
+        <v>1035.320054190021</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1319.497472482387</v>
+        <v>1078.116190886639</v>
       </c>
       <c r="C41" t="n">
-        <v>1319.497472482387</v>
+        <v>1078.116190886639</v>
       </c>
       <c r="D41" t="n">
-        <v>883.5876876568318</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E41" t="n">
-        <v>449.812942815127</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F41" t="n">
         <v>316.9281030050443</v>
@@ -7408,16 +7408,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867017</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.25688596925</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.639935903077</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1738.639935903077</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X41" t="n">
-        <v>1319.497472482387</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y41" t="n">
-        <v>1319.497472482387</v>
+        <v>1078.116190886639</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.291841223631</v>
+        <v>926.413848425154</v>
       </c>
       <c r="C43" t="n">
-        <v>919.7301297068562</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D43" t="n">
         <v>753.852136908379</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.434443083199</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7599,22 +7599,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1937.514407000714</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1650.558898871144</v>
+        <v>1591.04389249662</v>
       </c>
       <c r="W43" t="n">
-        <v>1650.558898871144</v>
+        <v>1591.04389249662</v>
       </c>
       <c r="X43" t="n">
-        <v>1405.167144204557</v>
+        <v>1345.652137830033</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>1118.232467144141</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>744.7955325958366</v>
+        <v>701.7439652528254</v>
       </c>
       <c r="C44" t="n">
-        <v>744.7955325958366</v>
+        <v>263.6014924362487</v>
       </c>
       <c r="D44" t="n">
-        <v>744.7955325958366</v>
+        <v>263.6014924362487</v>
       </c>
       <c r="E44" t="n">
-        <v>744.7955325958366</v>
+        <v>263.6014924362487</v>
       </c>
       <c r="F44" t="n">
-        <v>316.9281030050443</v>
+        <v>263.6014924362487</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>263.6014924362487</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
@@ -7651,10 +7651,10 @@
         <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7666,34 +7666,34 @@
         <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V44" t="n">
-        <v>1957.244257596359</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W44" t="n">
-        <v>1552.388803007392</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="X44" t="n">
-        <v>1133.246339586703</v>
+        <v>1536.32965943808</v>
       </c>
       <c r="Y44" t="n">
-        <v>744.7955325958366</v>
+        <v>1128.043535737733</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668979</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1036.997366370202</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C46" t="n">
-        <v>864.4356548534266</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D46" t="n">
-        <v>698.5576620549493</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E46" t="n">
-        <v>528.7996583056865</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>352.0926042674428</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G46" t="n">
-        <v>187.3514238799612</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H46" t="n">
-        <v>55.00736325927707</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>828.1746199579895</v>
+        <v>588.0160255186809</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376304</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180194</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527955</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.89643867598</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.90103895197</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855377</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1973.653814855377</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1973.653814855377</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1701.627410441668</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1456.235655775081</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y46" t="n">
-        <v>1228.815985089189</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
   </sheetData>
@@ -8850,16 +8850,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520624</v>
       </c>
       <c r="L13" t="n">
-        <v>68.57677528255635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M16" t="n">
-        <v>118.2717723303428</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>141.4680432173446</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M19" t="n">
         <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.2967351848908</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>256.2967351848943</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9801,19 +9801,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>43.04328571419887</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>180.4431792498135</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.2544722033714</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10041,16 +10041,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O28" t="n">
-        <v>244.2636390535695</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>509.7493287307153</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>16.39178053361684</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>117.1563429200473</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>169.3062583899062</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10284,10 +10284,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>244.2636390535692</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>16.3917805336167</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>23.75209989885047</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>432.2908800821581</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>4.217953603099716</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10524,10 +10524,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>97.88909899837154</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>10.62967161639982</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>192.4544649334015</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>80.00897722411263</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>177.1920849464593</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>141.4680432173436</v>
+        <v>263.8716243249363</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371567</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>418.4992673423216</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>416.3855777583095</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.7229266773837</v>
+        <v>410.5373356599063</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>344.8000200406565</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>253.9729163065506</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237268</v>
+        <v>27.01028645237292</v>
       </c>
       <c r="T11" t="n">
-        <v>196.6021193806006</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.4285649287229</v>
+        <v>243.4285649287231</v>
       </c>
       <c r="V11" t="n">
-        <v>345.9393609305334</v>
+        <v>345.9393609305337</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080987</v>
+        <v>387.7554804080989</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>401.8996191515043</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486284</v>
+        <v>150.0423489486287</v>
       </c>
       <c r="H13" t="n">
-        <v>117.9692003794989</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.41291406313611</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>106.7280414487288</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>101.2344908689743</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>420.7096284534329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583095</v>
+        <v>416.3855777583097</v>
       </c>
       <c r="F14" t="n">
-        <v>410.537335659906</v>
+        <v>410.5373356599063</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723393</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>198.4343705477944</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01028645237268</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U14" t="n">
-        <v>243.4285649287229</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>345.9393609305334</v>
+        <v>170.9719246526509</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>391.1518428283648</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>121.3459863417731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>150.0423489486287</v>
       </c>
       <c r="H16" t="n">
-        <v>117.9692003794989</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313611</v>
+        <v>49.41291406313636</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9308534758295</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>89.27283777264628</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>420.7096284534329</v>
       </c>
       <c r="D17" t="n">
-        <v>418.4992673423216</v>
+        <v>418.4992673423218</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583095</v>
+        <v>416.3855777583097</v>
       </c>
       <c r="F17" t="n">
-        <v>410.537335659906</v>
+        <v>410.5373356599063</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>66.32895275394787</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065503</v>
+        <v>253.9729163065506</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.01028645237268</v>
+        <v>27.01028645237292</v>
       </c>
       <c r="T17" t="n">
-        <v>196.6021193806006</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>243.4285649287229</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>345.9393609305334</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>102.9681551190259</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>401.8996191515043</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>150.0423489486287</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9692003794989</v>
+        <v>117.9692003794992</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313611</v>
+        <v>49.41291406313636</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9308534758295</v>
+        <v>101.2344908689765</v>
       </c>
       <c r="T19" t="n">
-        <v>121.3459863417728</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>408.9851551450806</v>
       </c>
       <c r="C20" t="n">
-        <v>420.7096284534326</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>418.4992673423216</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>416.3855777583095</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>356.6617622617985</v>
       </c>
       <c r="G20" t="n">
-        <v>92.7958623254992</v>
+        <v>382.4562447723395</v>
       </c>
       <c r="H20" t="n">
-        <v>253.9729163065504</v>
+        <v>253.9729163065506</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.01028645237268</v>
+        <v>27.01028645237292</v>
       </c>
       <c r="T20" t="n">
-        <v>196.6021193806006</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U20" t="n">
-        <v>243.4285649287229</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9393609305334</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>387.7554804080989</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>401.8996191515043</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.8490128968189</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>157.784674766629</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>84.02526659678986</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.3596227121611</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.41291406313636</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>229.8864174849436</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.537335659906</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>382.4562447723395</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>253.9729163065506</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.01028645237268</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>196.6021193806006</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U23" t="n">
-        <v>181.727945737259</v>
+        <v>243.4285649287231</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>345.9393609305337</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080987</v>
+        <v>183.1335804709927</v>
       </c>
       <c r="X23" t="n">
-        <v>401.8996191515041</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>391.1518428283648</v>
+        <v>391.151842828365</v>
       </c>
     </row>
     <row r="24">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>389.1988581084775</v>
       </c>
       <c r="G26" t="n">
-        <v>46.41270130303491</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24496,22 +24496,22 @@
         <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>417.6618157210452</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>222.3788953605473</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>353.4987433319145</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>46.03888216604958</v>
       </c>
     </row>
     <row r="33">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>294.6492154448422</v>
+        <v>213.5726403779441</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>114.8692533779068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>85.63329813973778</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>22.8056187061149</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>138.7236763830907</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>19.61895512646502</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811444</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>69.20332611124917</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>107.4114773678087</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>292.0327638829025</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>180.9048955448487</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>105.2993565597139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>52.79334446310759</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25924,7 +25924,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.63696354238533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74153010489532</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295025.3831877495</v>
+        <v>295025.3831877492</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>295025.3831877495</v>
+        <v>295025.3831877492</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>295025.3831877495</v>
+        <v>295025.3831877492</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>295025.3831877495</v>
+        <v>295025.3831877492</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355147.7081505496</v>
+        <v>355147.7081505499</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367386.3359064615</v>
+        <v>367386.3359064616</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367386.3359064615</v>
+        <v>367386.3359064616</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>279149.8973721545</v>
+        <v>279149.8973721546</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>279149.8973721545</v>
+        <v>279149.8973721546</v>
       </c>
     </row>
     <row r="15">
@@ -26316,22 +26316,22 @@
         <v>484130.7854230572</v>
       </c>
       <c r="C2" t="n">
-        <v>484130.7854230571</v>
+        <v>484130.7854230572</v>
       </c>
       <c r="D2" t="n">
-        <v>484130.785423057</v>
+        <v>484130.7854230572</v>
       </c>
       <c r="E2" t="n">
-        <v>308800.2940330882</v>
+        <v>308800.2940330878</v>
       </c>
       <c r="F2" t="n">
-        <v>308800.2940330882</v>
+        <v>308800.2940330878</v>
       </c>
       <c r="G2" t="n">
-        <v>308800.2940330882</v>
+        <v>308800.2940330878</v>
       </c>
       <c r="H2" t="n">
-        <v>308800.2940330881</v>
+        <v>308800.2940330878</v>
       </c>
       <c r="I2" t="n">
         <v>348920.3816198466</v>
@@ -26343,19 +26343,19 @@
         <v>349881.3576475701</v>
       </c>
       <c r="L2" t="n">
-        <v>349881.3576475702</v>
+        <v>349881.3576475701</v>
       </c>
       <c r="M2" t="n">
-        <v>291000.506906512</v>
+        <v>291000.5069065119</v>
       </c>
       <c r="N2" t="n">
-        <v>291000.506906512</v>
+        <v>291000.5069065119</v>
       </c>
       <c r="O2" t="n">
         <v>291000.506906512</v>
       </c>
       <c r="P2" t="n">
-        <v>291000.5069065118</v>
+        <v>291000.5069065119</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>561576.3366986584</v>
+        <v>561576.3366986582</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28687.43758396116</v>
+        <v>28687.43758396144</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.92408385233</v>
+        <v>13198.92408385209</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>31059.95241910721</v>
+        <v>31059.95241910702</v>
       </c>
       <c r="F4" t="n">
-        <v>31059.95241910723</v>
+        <v>31059.95241910701</v>
       </c>
       <c r="G4" t="n">
-        <v>31059.95241910723</v>
+        <v>31059.95241910701</v>
       </c>
       <c r="H4" t="n">
-        <v>31059.95241910722</v>
+        <v>31059.95241910702</v>
       </c>
       <c r="I4" t="n">
-        <v>55465.8771362181</v>
+        <v>55465.87713621811</v>
       </c>
       <c r="J4" t="n">
-        <v>55895.18041333463</v>
+        <v>55895.18041333462</v>
       </c>
       <c r="K4" t="n">
-        <v>55895.18041333462</v>
+        <v>55895.1804133346</v>
       </c>
       <c r="L4" t="n">
         <v>55895.18041333462</v>
       </c>
       <c r="M4" t="n">
-        <v>20076.67410129961</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="N4" t="n">
         <v>20076.67410129962</v>
       </c>
       <c r="O4" t="n">
-        <v>20076.67410129962</v>
+        <v>20076.67410129961</v>
       </c>
       <c r="P4" t="n">
         <v>20076.67410129961</v>
@@ -26478,25 +26478,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47148.3010069308</v>
+        <v>47148.30100693078</v>
       </c>
       <c r="F5" t="n">
-        <v>47148.30100693081</v>
+        <v>47148.30100693079</v>
       </c>
       <c r="G5" t="n">
-        <v>47148.30100693081</v>
+        <v>47148.30100693079</v>
       </c>
       <c r="H5" t="n">
-        <v>47148.30100693081</v>
+        <v>47148.30100693078</v>
       </c>
       <c r="I5" t="n">
-        <v>53707.3775939805</v>
+        <v>53707.37759398053</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
       </c>
       <c r="K5" t="n">
-        <v>55677.28176780177</v>
+        <v>55677.28176780176</v>
       </c>
       <c r="L5" t="n">
         <v>55677.28176780177</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937227</v>
       </c>
       <c r="C6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="D6" t="n">
-        <v>151772.4691112242</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="E6" t="n">
-        <v>-330984.2960916082</v>
+        <v>-331490.0690020556</v>
       </c>
       <c r="F6" t="n">
-        <v>230592.0406070501</v>
+        <v>230086.2676966026</v>
       </c>
       <c r="G6" t="n">
-        <v>230592.0406070501</v>
+        <v>230086.2676966026</v>
       </c>
       <c r="H6" t="n">
-        <v>230592.0406070501</v>
+        <v>230086.2676966026</v>
       </c>
       <c r="I6" t="n">
-        <v>211059.6893056869</v>
+        <v>210662.3490643925</v>
       </c>
       <c r="J6" t="n">
-        <v>225109.9713825814</v>
+        <v>224715.2283737949</v>
       </c>
       <c r="K6" t="n">
-        <v>238308.8954664338</v>
+        <v>237914.1524576472</v>
       </c>
       <c r="L6" t="n">
-        <v>238308.8954664338</v>
+        <v>237914.1524576471</v>
       </c>
       <c r="M6" t="n">
-        <v>117277.3727307777</v>
+        <v>116723.4922875556</v>
       </c>
       <c r="N6" t="n">
-        <v>224872.7515955746</v>
+        <v>224318.8711523525</v>
       </c>
       <c r="O6" t="n">
-        <v>224872.7515955746</v>
+        <v>224318.8711523526</v>
       </c>
       <c r="P6" t="n">
-        <v>224872.7515955744</v>
+        <v>224318.8711523525</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I2" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26755,7 +26755,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932211</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910409</v>
+        <v>697.9614434910418</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369992</v>
       </c>
       <c r="K4" t="n">
-        <v>748.4075614369992</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="L4" t="n">
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.8795491291066</v>
+        <v>107.8795491291077</v>
       </c>
       <c r="J4" t="n">
-        <v>50.44611794595835</v>
+        <v>50.44611794595744</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868688</v>
+        <v>431.756227286869</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="C25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="D25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="E25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="H25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="I25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="T25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="U25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="V25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="W25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="X25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.05141963497831</v>
+        <v>13.05141963497808</v>
       </c>
     </row>
     <row r="26">
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -31773,7 +31773,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
         <v>316.116681354841</v>
@@ -31782,19 +31782,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -31864,7 +31864,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
@@ -31873,7 +31873,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116989</v>
@@ -31931,16 +31931,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
@@ -31952,7 +31952,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32329,7 +32329,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33499,7 +33499,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562362</v>
       </c>
       <c r="K33" t="n">
         <v>162.099668741586</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34368,10 +34368,10 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062833</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -34386,7 +34386,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.607267687947</v>
@@ -34395,10 +34395,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.150095092452091</v>
@@ -34441,19 +34441,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415869</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108054</v>
@@ -34468,7 +34468,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -34477,7 +34477,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356904</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
@@ -34547,19 +34547,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062842</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766673</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35570,28 +35570,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263761</v>
       </c>
       <c r="L13" t="n">
-        <v>193.6987971192209</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,7 +35655,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35807,25 +35807,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>547.5562458447062</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M16" t="n">
-        <v>250.19540095512</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35892,7 +35892,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>266.5900650540092</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>227.2024143463632</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,13 +36357,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>415.5359020974618</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36378,7 +36378,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>458.9040028728414</v>
       </c>
       <c r="R23" t="n">
         <v>288.7178273103004</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916803</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742731</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>168.1653075508634</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>309.2299588497019</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027014</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>598.8903663599626</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
@@ -36609,16 +36609,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>389.8617398913184</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916805</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562362</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
         <v>162.099668741586</v>
@@ -36758,19 +36758,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O28" t="n">
-        <v>363.2190747583795</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
         <v>240.36368292423</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>748.407561436999</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766673</v>
@@ -36846,16 +36846,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>218.999048221564</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>288.7178273103004</v>
+        <v>235.0114785605933</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36922,10 +36922,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -36992,28 +36992,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>267.0841377510761</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>363.2190747583791</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>255.0500132399004</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>358.5251321983226</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562362</v>
       </c>
       <c r="K33" t="n">
         <v>162.099668741586</v>
@@ -37162,7 +37162,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9958329642696</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893359</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
@@ -37244,10 +37244,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485101</v>
+        <v>199.676024430375</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027014</v>
@@ -37305,13 +37305,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37320,10 +37320,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562336</v>
@@ -37390,7 +37390,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37408,7 +37408,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>70.13034202264538</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>324.3780935581786</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027014</v>
@@ -37563,7 +37563,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37645,7 +37645,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>205.1309990607772</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
@@ -37715,13 +37715,13 @@
         <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027014</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>296.1475206512691</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027014</v>
@@ -38016,10 +38016,10 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062833</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -38028,13 +38028,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415869</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>266.5900650540082</v>
+        <v>388.9936461616009</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619339</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
